--- a/example_data/EMA/label_corrected/dupixent-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/dupixent-epar-product-information_en.xlsx
@@ -5809,7 +5809,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I359" t="inlineStr"/>
